--- a/templates/emergencyTeam.xlsx
+++ b/templates/emergencyTeam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="11790"/>
+    <workbookView windowWidth="23295" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>应急队伍导入模板</t>
   </si>
@@ -93,15 +93,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
@@ -156,6 +147,9 @@
     <t>负责人</t>
   </si>
   <si>
+    <t>工号</t>
+  </si>
+  <si>
     <t>联系电话</t>
   </si>
   <si>
@@ -184,7 +178,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,21 +201,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,12 +362,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -913,41 +900,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1270,10 +1257,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
@@ -1283,11 +1270,11 @@
     <col min="3" max="4" width="22.9083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="9" width="12.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10" style="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1299,14 +1286,25 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="12"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="12"/>
     </row>
-    <row r="2" ht="95.25" customHeight="1" spans="1:1">
+    <row r="2" ht="95.25" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" customHeight="1" spans="1:10">
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1334,11 +1332,14 @@
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1349,10 +1350,11 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1361,19 +1363,19 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
@@ -1384,8 +1386,9 @@
       <c r="E8" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
